--- a/my-work/Topic05 - analysing data/population_for_analysis.xlsx
+++ b/my-work/Topic05 - analysing data/population_for_analysis.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edisonconsulting/Desktop/programming-for-data-analytics/my-work/Topic05 - analysing data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE142206-1842-6D40-8E8A-C1D1EF9E1ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24950784-85BF-3541-BB07-4C2439088016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26960" yWindow="-1500" windowWidth="32000" windowHeight="17500" xr2:uid="{0AB17354-0F51-BA4B-BA00-BD19D1ADBE18}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="2" xr2:uid="{0AB17354-0F51-BA4B-BA00-BD19D1ADBE18}"/>
   </bookViews>
   <sheets>
     <sheet name="population_for_analysis" sheetId="1" r:id="rId1"/>
-    <sheet name="Pivot" sheetId="2" r:id="rId2"/>
+    <sheet name="Weighted Mean" sheetId="2" r:id="rId2"/>
+    <sheet name="Weighted Median &amp; Mode" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>Single Year of Age</t>
   </si>
@@ -148,12 +149,24 @@
   <si>
     <t xml:space="preserve">Weighted Mean = </t>
   </si>
+  <si>
+    <t>Cumulative Sum of the Populations</t>
+  </si>
+  <si>
+    <t>Max Population =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weighted Mode = </t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -321,8 +334,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -508,6 +537,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD6DCE4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -684,19 +731,33 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — akcent 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4637,7 +4698,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5AA2E8AC-2305-2B4E-8FC3-134A556500FC}" name="Tabela przestawna1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5AA2E8AC-2305-2B4E-8FC3-134A556500FC}" name="Tabela przestawna1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="C6:D109" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="33">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
@@ -5098,14 +5159,14 @@
     <dataField name="Suma z Carlow County Council" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="3">
+    <format dxfId="0">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0" selected="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="50">
@@ -5163,7 +5224,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="50">
@@ -5221,7 +5282,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -5542,113 +5603,113 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A4BB5B-125E-074E-A0FA-472C60863CA0}">
   <dimension ref="A1:AG102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection sqref="A1:B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" style="5"/>
+    <col min="2" max="2" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="6" customFormat="1" ht="85" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:33" s="5" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="W1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="X1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Y1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="Z1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AA1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AB1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AC1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AD1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AE1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AF1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AG1" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5656,7 +5717,7 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="7">
         <v>699</v>
       </c>
       <c r="C2">
@@ -5757,7 +5818,7 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="7">
         <v>649</v>
       </c>
       <c r="C3">
@@ -5858,7 +5919,7 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="7">
         <v>689</v>
       </c>
       <c r="C4">
@@ -5959,7 +6020,7 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="7">
         <v>754</v>
       </c>
       <c r="C5">
@@ -6060,7 +6121,7 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="7">
         <v>745</v>
       </c>
       <c r="C6">
@@ -6161,7 +6222,7 @@
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="7">
         <v>749</v>
       </c>
       <c r="C7">
@@ -6262,7 +6323,7 @@
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="7">
         <v>750</v>
       </c>
       <c r="C8">
@@ -6363,7 +6424,7 @@
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="7">
         <v>889</v>
       </c>
       <c r="C9">
@@ -6464,7 +6525,7 @@
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="7">
         <v>819</v>
       </c>
       <c r="C10">
@@ -6565,7 +6626,7 @@
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="7">
         <v>882</v>
       </c>
       <c r="C11">
@@ -6666,7 +6727,7 @@
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="7">
         <v>921</v>
       </c>
       <c r="C12">
@@ -6767,7 +6828,7 @@
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="7">
         <v>964</v>
       </c>
       <c r="C13">
@@ -6868,7 +6929,7 @@
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="7">
         <v>908</v>
       </c>
       <c r="C14">
@@ -6969,7 +7030,7 @@
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="7">
         <v>943</v>
       </c>
       <c r="C15">
@@ -7070,7 +7131,7 @@
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="7">
         <v>951</v>
       </c>
       <c r="C16">
@@ -7171,7 +7232,7 @@
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="7">
         <v>843</v>
       </c>
       <c r="C17">
@@ -7272,7 +7333,7 @@
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="7">
         <v>873</v>
       </c>
       <c r="C18">
@@ -7373,7 +7434,7 @@
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="7">
         <v>877</v>
       </c>
       <c r="C19">
@@ -7474,7 +7535,7 @@
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="7">
         <v>903</v>
       </c>
       <c r="C20">
@@ -7575,7 +7636,7 @@
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="7">
         <v>827</v>
       </c>
       <c r="C21">
@@ -7676,7 +7737,7 @@
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="7">
         <v>810</v>
       </c>
       <c r="C22">
@@ -7777,7 +7838,7 @@
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="7">
         <v>813</v>
       </c>
       <c r="C23">
@@ -7878,7 +7939,7 @@
       <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="7">
         <v>769</v>
       </c>
       <c r="C24">
@@ -7979,7 +8040,7 @@
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="7">
         <v>720</v>
       </c>
       <c r="C25">
@@ -8080,7 +8141,7 @@
       <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="7">
         <v>669</v>
       </c>
       <c r="C26">
@@ -8181,7 +8242,7 @@
       <c r="A27">
         <v>25</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="7">
         <v>625</v>
       </c>
       <c r="C27">
@@ -8282,7 +8343,7 @@
       <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="7">
         <v>663</v>
       </c>
       <c r="C28">
@@ -8383,7 +8444,7 @@
       <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="7">
         <v>658</v>
       </c>
       <c r="C29">
@@ -8484,7 +8545,7 @@
       <c r="A30">
         <v>28</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="7">
         <v>633</v>
       </c>
       <c r="C30">
@@ -8585,7 +8646,7 @@
       <c r="A31">
         <v>29</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="7">
         <v>713</v>
       </c>
       <c r="C31">
@@ -8686,7 +8747,7 @@
       <c r="A32">
         <v>30</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="7">
         <v>705</v>
       </c>
       <c r="C32">
@@ -8787,7 +8848,7 @@
       <c r="A33">
         <v>31</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="7">
         <v>739</v>
       </c>
       <c r="C33">
@@ -8888,7 +8949,7 @@
       <c r="A34">
         <v>32</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="7">
         <v>746</v>
       </c>
       <c r="C34">
@@ -8989,7 +9050,7 @@
       <c r="A35">
         <v>33</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="7">
         <v>750</v>
       </c>
       <c r="C35">
@@ -9090,7 +9151,7 @@
       <c r="A36">
         <v>34</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="7">
         <v>774</v>
       </c>
       <c r="C36">
@@ -9191,7 +9252,7 @@
       <c r="A37">
         <v>35</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="7">
         <v>833</v>
       </c>
       <c r="C37">
@@ -9292,7 +9353,7 @@
       <c r="A38">
         <v>36</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="7">
         <v>835</v>
       </c>
       <c r="C38">
@@ -9393,7 +9454,7 @@
       <c r="A39">
         <v>37</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="7">
         <v>908</v>
       </c>
       <c r="C39">
@@ -9494,7 +9555,7 @@
       <c r="A40">
         <v>38</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="7">
         <v>948</v>
       </c>
       <c r="C40">
@@ -9595,7 +9656,7 @@
       <c r="A41">
         <v>39</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="7">
         <v>1006</v>
       </c>
       <c r="C41">
@@ -9696,7 +9757,7 @@
       <c r="A42">
         <v>40</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" s="7">
         <v>981</v>
       </c>
       <c r="C42">
@@ -9797,7 +9858,7 @@
       <c r="A43">
         <v>41</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43" s="7">
         <v>1024</v>
       </c>
       <c r="C43">
@@ -9898,7 +9959,7 @@
       <c r="A44">
         <v>42</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44" s="7">
         <v>1045</v>
       </c>
       <c r="C44">
@@ -9999,7 +10060,7 @@
       <c r="A45">
         <v>43</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45" s="7">
         <v>950</v>
       </c>
       <c r="C45">
@@ -10100,7 +10161,7 @@
       <c r="A46">
         <v>44</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46" s="7">
         <v>907</v>
       </c>
       <c r="C46">
@@ -10201,7 +10262,7 @@
       <c r="A47">
         <v>45</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47" s="7">
         <v>945</v>
       </c>
       <c r="C47">
@@ -10302,7 +10363,7 @@
       <c r="A48">
         <v>46</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B48" s="7">
         <v>949</v>
       </c>
       <c r="C48">
@@ -10403,7 +10464,7 @@
       <c r="A49">
         <v>47</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B49" s="7">
         <v>871</v>
       </c>
       <c r="C49">
@@ -10504,7 +10565,7 @@
       <c r="A50">
         <v>48</v>
       </c>
-      <c r="B50" s="5">
+      <c r="B50" s="7">
         <v>841</v>
       </c>
       <c r="C50">
@@ -10605,7 +10666,7 @@
       <c r="A51">
         <v>49</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B51" s="7">
         <v>946</v>
       </c>
       <c r="C51">
@@ -10706,7 +10767,7 @@
       <c r="A52">
         <v>50</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B52" s="7">
         <v>897</v>
       </c>
       <c r="C52">
@@ -10807,7 +10868,7 @@
       <c r="A53">
         <v>51</v>
       </c>
-      <c r="B53" s="5">
+      <c r="B53" s="7">
         <v>815</v>
       </c>
       <c r="C53">
@@ -10908,7 +10969,7 @@
       <c r="A54">
         <v>52</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B54" s="7">
         <v>823</v>
       </c>
       <c r="C54">
@@ -11009,7 +11070,7 @@
       <c r="A55">
         <v>53</v>
       </c>
-      <c r="B55" s="5">
+      <c r="B55" s="7">
         <v>785</v>
       </c>
       <c r="C55">
@@ -11110,7 +11171,7 @@
       <c r="A56">
         <v>54</v>
       </c>
-      <c r="B56" s="5">
+      <c r="B56" s="7">
         <v>805</v>
       </c>
       <c r="C56">
@@ -11211,7 +11272,7 @@
       <c r="A57">
         <v>55</v>
       </c>
-      <c r="B57" s="5">
+      <c r="B57" s="7">
         <v>804</v>
       </c>
       <c r="C57">
@@ -11312,7 +11373,7 @@
       <c r="A58">
         <v>56</v>
       </c>
-      <c r="B58" s="5">
+      <c r="B58" s="7">
         <v>795</v>
       </c>
       <c r="C58">
@@ -11413,7 +11474,7 @@
       <c r="A59">
         <v>57</v>
       </c>
-      <c r="B59" s="5">
+      <c r="B59" s="7">
         <v>740</v>
       </c>
       <c r="C59">
@@ -11514,7 +11575,7 @@
       <c r="A60">
         <v>58</v>
       </c>
-      <c r="B60" s="5">
+      <c r="B60" s="7">
         <v>724</v>
       </c>
       <c r="C60">
@@ -11615,7 +11676,7 @@
       <c r="A61">
         <v>59</v>
       </c>
-      <c r="B61" s="5">
+      <c r="B61" s="7">
         <v>743</v>
       </c>
       <c r="C61">
@@ -11716,7 +11777,7 @@
       <c r="A62">
         <v>60</v>
       </c>
-      <c r="B62" s="5">
+      <c r="B62" s="7">
         <v>673</v>
       </c>
       <c r="C62">
@@ -11817,7 +11878,7 @@
       <c r="A63">
         <v>61</v>
       </c>
-      <c r="B63" s="5">
+      <c r="B63" s="7">
         <v>684</v>
       </c>
       <c r="C63">
@@ -11918,7 +11979,7 @@
       <c r="A64">
         <v>62</v>
       </c>
-      <c r="B64" s="5">
+      <c r="B64" s="7">
         <v>713</v>
       </c>
       <c r="C64">
@@ -12019,7 +12080,7 @@
       <c r="A65">
         <v>63</v>
       </c>
-      <c r="B65" s="5">
+      <c r="B65" s="7">
         <v>642</v>
       </c>
       <c r="C65">
@@ -12120,7 +12181,7 @@
       <c r="A66">
         <v>64</v>
       </c>
-      <c r="B66" s="5">
+      <c r="B66" s="7">
         <v>610</v>
       </c>
       <c r="C66">
@@ -12221,7 +12282,7 @@
       <c r="A67">
         <v>65</v>
       </c>
-      <c r="B67" s="5">
+      <c r="B67" s="7">
         <v>628</v>
       </c>
       <c r="C67">
@@ -12322,7 +12383,7 @@
       <c r="A68">
         <v>66</v>
       </c>
-      <c r="B68" s="5">
+      <c r="B68" s="7">
         <v>569</v>
       </c>
       <c r="C68">
@@ -12423,7 +12484,7 @@
       <c r="A69">
         <v>67</v>
       </c>
-      <c r="B69" s="5">
+      <c r="B69" s="7">
         <v>562</v>
       </c>
       <c r="C69">
@@ -12524,7 +12585,7 @@
       <c r="A70">
         <v>68</v>
       </c>
-      <c r="B70" s="5">
+      <c r="B70" s="7">
         <v>565</v>
       </c>
       <c r="C70">
@@ -12625,7 +12686,7 @@
       <c r="A71">
         <v>69</v>
       </c>
-      <c r="B71" s="5">
+      <c r="B71" s="7">
         <v>587</v>
       </c>
       <c r="C71">
@@ -12726,7 +12787,7 @@
       <c r="A72">
         <v>70</v>
       </c>
-      <c r="B72" s="5">
+      <c r="B72" s="7">
         <v>522</v>
       </c>
       <c r="C72">
@@ -12827,7 +12888,7 @@
       <c r="A73">
         <v>71</v>
       </c>
-      <c r="B73" s="5">
+      <c r="B73" s="7">
         <v>497</v>
       </c>
       <c r="C73">
@@ -12928,7 +12989,7 @@
       <c r="A74">
         <v>72</v>
       </c>
-      <c r="B74" s="5">
+      <c r="B74" s="7">
         <v>526</v>
       </c>
       <c r="C74">
@@ -13029,7 +13090,7 @@
       <c r="A75">
         <v>73</v>
       </c>
-      <c r="B75" s="5">
+      <c r="B75" s="7">
         <v>461</v>
       </c>
       <c r="C75">
@@ -13130,7 +13191,7 @@
       <c r="A76">
         <v>74</v>
       </c>
-      <c r="B76" s="5">
+      <c r="B76" s="7">
         <v>475</v>
       </c>
       <c r="C76">
@@ -13231,7 +13292,7 @@
       <c r="A77">
         <v>75</v>
       </c>
-      <c r="B77" s="5">
+      <c r="B77" s="7">
         <v>404</v>
       </c>
       <c r="C77">
@@ -13332,7 +13393,7 @@
       <c r="A78">
         <v>76</v>
       </c>
-      <c r="B78" s="5">
+      <c r="B78" s="7">
         <v>412</v>
       </c>
       <c r="C78">
@@ -13433,7 +13494,7 @@
       <c r="A79">
         <v>77</v>
       </c>
-      <c r="B79" s="5">
+      <c r="B79" s="7">
         <v>372</v>
       </c>
       <c r="C79">
@@ -13534,7 +13595,7 @@
       <c r="A80">
         <v>78</v>
       </c>
-      <c r="B80" s="5">
+      <c r="B80" s="7">
         <v>312</v>
       </c>
       <c r="C80">
@@ -13635,7 +13696,7 @@
       <c r="A81">
         <v>79</v>
       </c>
-      <c r="B81" s="5">
+      <c r="B81" s="7">
         <v>339</v>
       </c>
       <c r="C81">
@@ -13736,7 +13797,7 @@
       <c r="A82">
         <v>80</v>
       </c>
-      <c r="B82" s="5">
+      <c r="B82" s="7">
         <v>279</v>
       </c>
       <c r="C82">
@@ -13837,7 +13898,7 @@
       <c r="A83">
         <v>81</v>
       </c>
-      <c r="B83" s="5">
+      <c r="B83" s="7">
         <v>265</v>
       </c>
       <c r="C83">
@@ -13938,7 +13999,7 @@
       <c r="A84">
         <v>82</v>
       </c>
-      <c r="B84" s="5">
+      <c r="B84" s="7">
         <v>240</v>
       </c>
       <c r="C84">
@@ -14039,7 +14100,7 @@
       <c r="A85">
         <v>83</v>
       </c>
-      <c r="B85" s="5">
+      <c r="B85" s="7">
         <v>203</v>
       </c>
       <c r="C85">
@@ -14140,7 +14201,7 @@
       <c r="A86">
         <v>84</v>
       </c>
-      <c r="B86" s="5">
+      <c r="B86" s="7">
         <v>198</v>
       </c>
       <c r="C86">
@@ -14241,7 +14302,7 @@
       <c r="A87">
         <v>85</v>
       </c>
-      <c r="B87" s="5">
+      <c r="B87" s="7">
         <v>141</v>
       </c>
       <c r="C87">
@@ -14342,7 +14403,7 @@
       <c r="A88">
         <v>86</v>
       </c>
-      <c r="B88" s="5">
+      <c r="B88" s="7">
         <v>159</v>
       </c>
       <c r="C88">
@@ -14443,7 +14504,7 @@
       <c r="A89">
         <v>87</v>
       </c>
-      <c r="B89" s="5">
+      <c r="B89" s="7">
         <v>119</v>
       </c>
       <c r="C89">
@@ -14544,7 +14605,7 @@
       <c r="A90">
         <v>88</v>
       </c>
-      <c r="B90" s="5">
+      <c r="B90" s="7">
         <v>105</v>
       </c>
       <c r="C90">
@@ -14645,7 +14706,7 @@
       <c r="A91">
         <v>89</v>
       </c>
-      <c r="B91" s="5">
+      <c r="B91" s="7">
         <v>86</v>
       </c>
       <c r="C91">
@@ -14746,7 +14807,7 @@
       <c r="A92">
         <v>90</v>
       </c>
-      <c r="B92" s="5">
+      <c r="B92" s="7">
         <v>65</v>
       </c>
       <c r="C92">
@@ -14847,7 +14908,7 @@
       <c r="A93">
         <v>91</v>
       </c>
-      <c r="B93" s="5">
+      <c r="B93" s="7">
         <v>72</v>
       </c>
       <c r="C93">
@@ -14948,7 +15009,7 @@
       <c r="A94">
         <v>92</v>
       </c>
-      <c r="B94" s="5">
+      <c r="B94" s="7">
         <v>38</v>
       </c>
       <c r="C94">
@@ -15049,7 +15110,7 @@
       <c r="A95">
         <v>93</v>
       </c>
-      <c r="B95" s="5">
+      <c r="B95" s="7">
         <v>26</v>
       </c>
       <c r="C95">
@@ -15150,7 +15211,7 @@
       <c r="A96">
         <v>94</v>
       </c>
-      <c r="B96" s="5">
+      <c r="B96" s="7">
         <v>24</v>
       </c>
       <c r="C96">
@@ -15251,7 +15312,7 @@
       <c r="A97">
         <v>95</v>
       </c>
-      <c r="B97" s="5">
+      <c r="B97" s="7">
         <v>14</v>
       </c>
       <c r="C97">
@@ -15352,7 +15413,7 @@
       <c r="A98">
         <v>96</v>
       </c>
-      <c r="B98" s="5">
+      <c r="B98" s="7">
         <v>11</v>
       </c>
       <c r="C98">
@@ -15453,7 +15514,7 @@
       <c r="A99">
         <v>97</v>
       </c>
-      <c r="B99" s="5">
+      <c r="B99" s="7">
         <v>11</v>
       </c>
       <c r="C99">
@@ -15554,7 +15615,7 @@
       <c r="A100">
         <v>98</v>
       </c>
-      <c r="B100" s="5">
+      <c r="B100" s="7">
         <v>7</v>
       </c>
       <c r="C100">
@@ -15655,7 +15716,7 @@
       <c r="A101">
         <v>99</v>
       </c>
-      <c r="B101" s="5">
+      <c r="B101" s="7">
         <v>7</v>
       </c>
       <c r="C101">
@@ -15756,7 +15817,7 @@
       <c r="A102">
         <v>100</v>
       </c>
-      <c r="B102" s="5">
+      <c r="B102" s="7">
         <v>3</v>
       </c>
       <c r="C102">
@@ -15860,26 +15921,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8938B723-A3F3-9A4C-B48E-DA5B83027095}">
-  <dimension ref="C6:H109"/>
+  <dimension ref="C6:M109"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="G112" sqref="G112"/>
+    <sheetView topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="F125" sqref="F125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="26.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.1640625" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" customWidth="1"/>
+    <col min="11" max="11" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C6" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>0</v>
       </c>
@@ -15887,1235 +15948,3113 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C8" s="4">
         <v>0</v>
       </c>
       <c r="D8" s="4">
         <v>699</v>
       </c>
-      <c r="E8" s="4">
-        <f>C8*GETPIVOTDATA("Carlow County Council",$C$6,"Single Year of Age",0)</f>
+      <c r="F8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <v>699</v>
+      </c>
+      <c r="H8">
+        <f>F8*G8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C9" s="4">
         <v>1</v>
       </c>
       <c r="D9" s="4">
         <v>649</v>
       </c>
-      <c r="E9" s="4">
-        <f t="shared" ref="E9:E72" si="0">C9*GETPIVOTDATA("Carlow County Council",$C$6,"Single Year of Age",0)</f>
-        <v>699</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>649</v>
+      </c>
+      <c r="H9">
+        <f t="shared" ref="H9:H72" si="0">F9*G9</f>
+        <v>649</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C10" s="4">
         <v>2</v>
       </c>
       <c r="D10" s="4">
         <v>689</v>
       </c>
-      <c r="E10" s="4">
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>689</v>
+      </c>
+      <c r="H10">
         <f t="shared" si="0"/>
-        <v>1398</v>
-      </c>
-    </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.2">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C11" s="4">
         <v>3</v>
       </c>
       <c r="D11" s="4">
         <v>754</v>
       </c>
-      <c r="E11" s="4">
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>754</v>
+      </c>
+      <c r="H11">
         <f t="shared" si="0"/>
-        <v>2097</v>
-      </c>
-    </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.2">
+        <v>2262</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C12" s="4">
         <v>4</v>
       </c>
       <c r="D12" s="4">
         <v>745</v>
       </c>
-      <c r="E12" s="4">
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>745</v>
+      </c>
+      <c r="H12">
         <f t="shared" si="0"/>
-        <v>2796</v>
-      </c>
-    </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.2">
+        <v>2980</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C13" s="4">
         <v>5</v>
       </c>
       <c r="D13" s="4">
         <v>749</v>
       </c>
-      <c r="E13" s="4">
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>749</v>
+      </c>
+      <c r="H13">
         <f t="shared" si="0"/>
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.2">
+        <v>3745</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C14" s="4">
         <v>6</v>
       </c>
       <c r="D14" s="4">
         <v>750</v>
       </c>
-      <c r="E14" s="4">
+      <c r="F14">
+        <v>6</v>
+      </c>
+      <c r="G14">
+        <v>750</v>
+      </c>
+      <c r="H14">
         <f t="shared" si="0"/>
-        <v>4194</v>
-      </c>
-    </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.2">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C15" s="4">
         <v>7</v>
       </c>
       <c r="D15" s="4">
         <v>889</v>
       </c>
-      <c r="E15" s="4">
+      <c r="F15">
+        <v>7</v>
+      </c>
+      <c r="G15">
+        <v>889</v>
+      </c>
+      <c r="H15">
         <f t="shared" si="0"/>
-        <v>4893</v>
-      </c>
-    </row>
-    <row r="16" spans="3:5" x14ac:dyDescent="0.2">
+        <v>6223</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C16" s="4">
         <v>8</v>
       </c>
       <c r="D16" s="4">
         <v>819</v>
       </c>
-      <c r="E16" s="4">
+      <c r="F16">
+        <v>8</v>
+      </c>
+      <c r="G16">
+        <v>819</v>
+      </c>
+      <c r="H16">
         <f t="shared" si="0"/>
-        <v>5592</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+        <v>6552</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C17" s="4">
         <v>9</v>
       </c>
       <c r="D17" s="4">
         <v>882</v>
       </c>
-      <c r="E17" s="4">
+      <c r="F17">
+        <v>9</v>
+      </c>
+      <c r="G17">
+        <v>882</v>
+      </c>
+      <c r="H17">
         <f t="shared" si="0"/>
-        <v>6291</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+        <v>7938</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C18" s="4">
         <v>10</v>
       </c>
       <c r="D18" s="4">
         <v>921</v>
       </c>
-      <c r="E18" s="4">
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="G18">
+        <v>921</v>
+      </c>
+      <c r="H18">
         <f t="shared" si="0"/>
-        <v>6990</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+        <v>9210</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C19" s="4">
         <v>11</v>
       </c>
       <c r="D19" s="4">
         <v>964</v>
       </c>
-      <c r="E19" s="4">
+      <c r="F19">
+        <v>11</v>
+      </c>
+      <c r="G19">
+        <v>964</v>
+      </c>
+      <c r="H19">
         <f t="shared" si="0"/>
-        <v>7689</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+        <v>10604</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C20" s="4">
         <v>12</v>
       </c>
       <c r="D20" s="4">
         <v>908</v>
       </c>
-      <c r="E20" s="4">
+      <c r="F20">
+        <v>12</v>
+      </c>
+      <c r="G20">
+        <v>908</v>
+      </c>
+      <c r="H20">
         <f t="shared" si="0"/>
-        <v>8388</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+        <v>10896</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C21" s="4">
         <v>13</v>
       </c>
       <c r="D21" s="4">
         <v>943</v>
       </c>
-      <c r="E21" s="4">
+      <c r="F21">
+        <v>13</v>
+      </c>
+      <c r="G21">
+        <v>943</v>
+      </c>
+      <c r="H21">
         <f t="shared" si="0"/>
-        <v>9087</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+        <v>12259</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C22" s="4">
         <v>14</v>
       </c>
       <c r="D22" s="4">
         <v>951</v>
       </c>
-      <c r="E22" s="4">
+      <c r="F22">
+        <v>14</v>
+      </c>
+      <c r="G22">
+        <v>951</v>
+      </c>
+      <c r="H22">
         <f t="shared" si="0"/>
-        <v>9786</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+        <v>13314</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C23" s="4">
         <v>15</v>
       </c>
       <c r="D23" s="4">
         <v>843</v>
       </c>
-      <c r="E23" s="4">
+      <c r="F23">
+        <v>15</v>
+      </c>
+      <c r="G23">
+        <v>843</v>
+      </c>
+      <c r="H23">
         <f t="shared" si="0"/>
-        <v>10485</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
+        <v>12645</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C24" s="4">
         <v>16</v>
       </c>
       <c r="D24" s="4">
         <v>873</v>
       </c>
-      <c r="E24" s="4">
+      <c r="F24">
+        <v>16</v>
+      </c>
+      <c r="G24">
+        <v>873</v>
+      </c>
+      <c r="H24">
         <f t="shared" si="0"/>
-        <v>11184</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
+        <v>13968</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C25" s="4">
         <v>17</v>
       </c>
       <c r="D25" s="4">
         <v>877</v>
       </c>
-      <c r="E25" s="4">
+      <c r="F25">
+        <v>17</v>
+      </c>
+      <c r="G25">
+        <v>877</v>
+      </c>
+      <c r="H25">
         <f t="shared" si="0"/>
-        <v>11883</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
+        <v>14909</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C26" s="4">
         <v>18</v>
       </c>
       <c r="D26" s="4">
         <v>903</v>
       </c>
-      <c r="E26" s="4">
+      <c r="F26">
+        <v>18</v>
+      </c>
+      <c r="G26">
+        <v>903</v>
+      </c>
+      <c r="H26">
         <f t="shared" si="0"/>
-        <v>12582</v>
-      </c>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.2">
+        <v>16254</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C27" s="4">
         <v>19</v>
       </c>
       <c r="D27" s="4">
         <v>827</v>
       </c>
-      <c r="E27" s="4">
+      <c r="F27">
+        <v>19</v>
+      </c>
+      <c r="G27">
+        <v>827</v>
+      </c>
+      <c r="H27">
         <f t="shared" si="0"/>
-        <v>13281</v>
-      </c>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.2">
+        <v>15713</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C28" s="4">
         <v>20</v>
       </c>
       <c r="D28" s="4">
         <v>810</v>
       </c>
-      <c r="E28" s="4">
+      <c r="F28">
+        <v>20</v>
+      </c>
+      <c r="G28">
+        <v>810</v>
+      </c>
+      <c r="H28">
         <f t="shared" si="0"/>
-        <v>13980</v>
-      </c>
-    </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.2">
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C29" s="4">
         <v>21</v>
       </c>
       <c r="D29" s="4">
         <v>813</v>
       </c>
-      <c r="E29" s="4">
+      <c r="F29">
+        <v>21</v>
+      </c>
+      <c r="G29">
+        <v>813</v>
+      </c>
+      <c r="H29">
         <f t="shared" si="0"/>
-        <v>14679</v>
-      </c>
-    </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.2">
+        <v>17073</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C30" s="4">
         <v>22</v>
       </c>
       <c r="D30" s="4">
         <v>769</v>
       </c>
-      <c r="E30" s="4">
+      <c r="F30">
+        <v>22</v>
+      </c>
+      <c r="G30">
+        <v>769</v>
+      </c>
+      <c r="H30">
         <f t="shared" si="0"/>
-        <v>15378</v>
-      </c>
-    </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.2">
+        <v>16918</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C31" s="4">
         <v>23</v>
       </c>
       <c r="D31" s="4">
         <v>720</v>
       </c>
-      <c r="E31" s="4">
+      <c r="F31">
+        <v>23</v>
+      </c>
+      <c r="G31">
+        <v>720</v>
+      </c>
+      <c r="H31">
         <f t="shared" si="0"/>
-        <v>16077</v>
-      </c>
-    </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.2">
+        <v>16560</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C32" s="4">
         <v>24</v>
       </c>
       <c r="D32" s="4">
         <v>669</v>
       </c>
-      <c r="E32" s="4">
+      <c r="F32">
+        <v>24</v>
+      </c>
+      <c r="G32">
+        <v>669</v>
+      </c>
+      <c r="H32">
         <f t="shared" si="0"/>
-        <v>16776</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+        <v>16056</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C33" s="4">
         <v>25</v>
       </c>
       <c r="D33" s="4">
         <v>625</v>
       </c>
-      <c r="E33" s="4">
+      <c r="F33">
+        <v>25</v>
+      </c>
+      <c r="G33">
+        <v>625</v>
+      </c>
+      <c r="H33">
         <f t="shared" si="0"/>
-        <v>17475</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+        <v>15625</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C34" s="4">
         <v>26</v>
       </c>
       <c r="D34" s="4">
         <v>663</v>
       </c>
-      <c r="E34" s="4">
+      <c r="F34">
+        <v>26</v>
+      </c>
+      <c r="G34">
+        <v>663</v>
+      </c>
+      <c r="H34">
         <f t="shared" si="0"/>
-        <v>18174</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
+        <v>17238</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C35" s="4">
         <v>27</v>
       </c>
       <c r="D35" s="4">
         <v>658</v>
       </c>
-      <c r="E35" s="4">
+      <c r="F35">
+        <v>27</v>
+      </c>
+      <c r="G35">
+        <v>658</v>
+      </c>
+      <c r="H35">
         <f t="shared" si="0"/>
-        <v>18873</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
+        <v>17766</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C36" s="4">
         <v>28</v>
       </c>
       <c r="D36" s="4">
         <v>633</v>
       </c>
-      <c r="E36" s="4">
+      <c r="F36">
+        <v>28</v>
+      </c>
+      <c r="G36">
+        <v>633</v>
+      </c>
+      <c r="H36">
         <f t="shared" si="0"/>
-        <v>19572</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
+        <v>17724</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C37" s="4">
         <v>29</v>
       </c>
       <c r="D37" s="4">
         <v>713</v>
       </c>
-      <c r="E37" s="4">
+      <c r="F37">
+        <v>29</v>
+      </c>
+      <c r="G37">
+        <v>713</v>
+      </c>
+      <c r="H37">
         <f t="shared" si="0"/>
-        <v>20271</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
+        <v>20677</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C38" s="4">
         <v>30</v>
       </c>
       <c r="D38" s="4">
         <v>705</v>
       </c>
-      <c r="E38" s="4">
+      <c r="F38">
+        <v>30</v>
+      </c>
+      <c r="G38">
+        <v>705</v>
+      </c>
+      <c r="H38">
         <f t="shared" si="0"/>
-        <v>20970</v>
-      </c>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.2">
+        <v>21150</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C39" s="4">
         <v>31</v>
       </c>
       <c r="D39" s="4">
         <v>739</v>
       </c>
-      <c r="E39" s="4">
+      <c r="F39">
+        <v>31</v>
+      </c>
+      <c r="G39">
+        <v>739</v>
+      </c>
+      <c r="H39">
         <f t="shared" si="0"/>
-        <v>21669</v>
-      </c>
-    </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
+        <v>22909</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C40" s="4">
         <v>32</v>
       </c>
       <c r="D40" s="4">
         <v>746</v>
       </c>
-      <c r="E40" s="4">
+      <c r="F40">
+        <v>32</v>
+      </c>
+      <c r="G40">
+        <v>746</v>
+      </c>
+      <c r="H40">
         <f t="shared" si="0"/>
-        <v>22368</v>
-      </c>
-    </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.2">
+        <v>23872</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C41" s="4">
         <v>33</v>
       </c>
       <c r="D41" s="4">
         <v>750</v>
       </c>
-      <c r="E41" s="4">
+      <c r="F41">
+        <v>33</v>
+      </c>
+      <c r="G41">
+        <v>750</v>
+      </c>
+      <c r="H41">
         <f t="shared" si="0"/>
-        <v>23067</v>
-      </c>
-    </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.2">
+        <v>24750</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C42" s="4">
         <v>34</v>
       </c>
       <c r="D42" s="4">
         <v>774</v>
       </c>
-      <c r="E42" s="4">
+      <c r="F42">
+        <v>34</v>
+      </c>
+      <c r="G42">
+        <v>774</v>
+      </c>
+      <c r="H42">
         <f t="shared" si="0"/>
-        <v>23766</v>
-      </c>
-    </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.2">
+        <v>26316</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C43" s="4">
         <v>35</v>
       </c>
       <c r="D43" s="4">
         <v>833</v>
       </c>
-      <c r="E43" s="4">
+      <c r="F43">
+        <v>35</v>
+      </c>
+      <c r="G43">
+        <v>833</v>
+      </c>
+      <c r="H43">
         <f t="shared" si="0"/>
-        <v>24465</v>
-      </c>
-    </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.2">
+        <v>29155</v>
+      </c>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C44" s="4">
         <v>36</v>
       </c>
       <c r="D44" s="4">
         <v>835</v>
       </c>
-      <c r="E44" s="4">
+      <c r="F44">
+        <v>36</v>
+      </c>
+      <c r="G44">
+        <v>835</v>
+      </c>
+      <c r="H44">
         <f t="shared" si="0"/>
-        <v>25164</v>
-      </c>
-    </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.2">
+        <v>30060</v>
+      </c>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C45" s="4">
         <v>37</v>
       </c>
       <c r="D45" s="4">
         <v>908</v>
       </c>
-      <c r="E45" s="4">
+      <c r="F45">
+        <v>37</v>
+      </c>
+      <c r="G45">
+        <v>908</v>
+      </c>
+      <c r="H45">
         <f t="shared" si="0"/>
-        <v>25863</v>
-      </c>
-    </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.2">
+        <v>33596</v>
+      </c>
+    </row>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C46" s="4">
         <v>38</v>
       </c>
       <c r="D46" s="4">
         <v>948</v>
       </c>
-      <c r="E46" s="4">
+      <c r="F46">
+        <v>38</v>
+      </c>
+      <c r="G46">
+        <v>948</v>
+      </c>
+      <c r="H46">
         <f t="shared" si="0"/>
-        <v>26562</v>
-      </c>
-    </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.2">
+        <v>36024</v>
+      </c>
+    </row>
+    <row r="47" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C47" s="4">
         <v>39</v>
       </c>
       <c r="D47" s="4">
         <v>1006</v>
       </c>
-      <c r="E47" s="4">
+      <c r="F47">
+        <v>39</v>
+      </c>
+      <c r="G47">
+        <v>1006</v>
+      </c>
+      <c r="H47">
         <f t="shared" si="0"/>
-        <v>27261</v>
-      </c>
-    </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.2">
+        <v>39234</v>
+      </c>
+    </row>
+    <row r="48" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C48" s="4">
         <v>40</v>
       </c>
       <c r="D48" s="4">
         <v>981</v>
       </c>
-      <c r="E48" s="4">
+      <c r="F48">
+        <v>40</v>
+      </c>
+      <c r="G48">
+        <v>981</v>
+      </c>
+      <c r="H48">
         <f t="shared" si="0"/>
-        <v>27960</v>
-      </c>
-    </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.2">
+        <v>39240</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C49" s="4">
         <v>41</v>
       </c>
       <c r="D49" s="4">
         <v>1024</v>
       </c>
-      <c r="E49" s="4">
+      <c r="F49">
+        <v>41</v>
+      </c>
+      <c r="G49">
+        <v>1024</v>
+      </c>
+      <c r="H49">
         <f t="shared" si="0"/>
-        <v>28659</v>
-      </c>
-    </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.2">
+        <v>41984</v>
+      </c>
+    </row>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C50" s="4">
         <v>42</v>
       </c>
       <c r="D50" s="4">
         <v>1045</v>
       </c>
-      <c r="E50" s="4">
+      <c r="F50">
+        <v>42</v>
+      </c>
+      <c r="G50">
+        <v>1045</v>
+      </c>
+      <c r="H50">
         <f t="shared" si="0"/>
-        <v>29358</v>
-      </c>
-    </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.2">
+        <v>43890</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C51" s="4">
         <v>43</v>
       </c>
       <c r="D51" s="4">
         <v>950</v>
       </c>
-      <c r="E51" s="4">
+      <c r="F51">
+        <v>43</v>
+      </c>
+      <c r="G51">
+        <v>950</v>
+      </c>
+      <c r="H51">
         <f t="shared" si="0"/>
-        <v>30057</v>
-      </c>
-    </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.2">
+        <v>40850</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C52" s="4">
         <v>44</v>
       </c>
       <c r="D52" s="4">
         <v>907</v>
       </c>
-      <c r="E52" s="4">
+      <c r="F52">
+        <v>44</v>
+      </c>
+      <c r="G52">
+        <v>907</v>
+      </c>
+      <c r="H52">
         <f t="shared" si="0"/>
-        <v>30756</v>
-      </c>
-    </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.2">
+        <v>39908</v>
+      </c>
+    </row>
+    <row r="53" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C53" s="4">
         <v>45</v>
       </c>
       <c r="D53" s="4">
         <v>945</v>
       </c>
-      <c r="E53" s="4">
+      <c r="F53">
+        <v>45</v>
+      </c>
+      <c r="G53">
+        <v>945</v>
+      </c>
+      <c r="H53">
         <f t="shared" si="0"/>
-        <v>31455</v>
-      </c>
-    </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.2">
+        <v>42525</v>
+      </c>
+    </row>
+    <row r="54" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C54" s="4">
         <v>46</v>
       </c>
       <c r="D54" s="4">
         <v>949</v>
       </c>
-      <c r="E54" s="4">
+      <c r="F54">
+        <v>46</v>
+      </c>
+      <c r="G54">
+        <v>949</v>
+      </c>
+      <c r="H54">
         <f t="shared" si="0"/>
-        <v>32154</v>
-      </c>
-    </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.2">
+        <v>43654</v>
+      </c>
+    </row>
+    <row r="55" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C55" s="4">
         <v>47</v>
       </c>
       <c r="D55" s="4">
         <v>871</v>
       </c>
-      <c r="E55" s="4">
+      <c r="F55">
+        <v>47</v>
+      </c>
+      <c r="G55">
+        <v>871</v>
+      </c>
+      <c r="H55">
         <f t="shared" si="0"/>
-        <v>32853</v>
-      </c>
-    </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.2">
+        <v>40937</v>
+      </c>
+    </row>
+    <row r="56" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C56" s="4">
         <v>48</v>
       </c>
       <c r="D56" s="4">
         <v>841</v>
       </c>
-      <c r="E56" s="4">
+      <c r="F56">
+        <v>48</v>
+      </c>
+      <c r="G56">
+        <v>841</v>
+      </c>
+      <c r="H56">
         <f t="shared" si="0"/>
-        <v>33552</v>
-      </c>
-    </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.2">
+        <v>40368</v>
+      </c>
+    </row>
+    <row r="57" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C57" s="4">
         <v>49</v>
       </c>
       <c r="D57" s="4">
         <v>946</v>
       </c>
-      <c r="E57" s="4">
+      <c r="F57">
+        <v>49</v>
+      </c>
+      <c r="G57">
+        <v>946</v>
+      </c>
+      <c r="H57">
         <f t="shared" si="0"/>
-        <v>34251</v>
-      </c>
-    </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.2">
+        <v>46354</v>
+      </c>
+    </row>
+    <row r="58" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C58" s="4">
         <v>50</v>
       </c>
       <c r="D58" s="4">
         <v>897</v>
       </c>
-      <c r="E58" s="4">
+      <c r="F58">
+        <v>50</v>
+      </c>
+      <c r="G58">
+        <v>897</v>
+      </c>
+      <c r="H58">
         <f t="shared" si="0"/>
-        <v>34950</v>
-      </c>
-    </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.2">
+        <v>44850</v>
+      </c>
+    </row>
+    <row r="59" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C59" s="4">
         <v>51</v>
       </c>
       <c r="D59" s="4">
         <v>815</v>
       </c>
-      <c r="E59" s="4">
+      <c r="F59">
+        <v>51</v>
+      </c>
+      <c r="G59">
+        <v>815</v>
+      </c>
+      <c r="H59">
         <f t="shared" si="0"/>
-        <v>35649</v>
-      </c>
-    </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.2">
+        <v>41565</v>
+      </c>
+    </row>
+    <row r="60" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C60" s="4">
         <v>52</v>
       </c>
       <c r="D60" s="4">
         <v>823</v>
       </c>
-      <c r="E60" s="4">
+      <c r="F60">
+        <v>52</v>
+      </c>
+      <c r="G60">
+        <v>823</v>
+      </c>
+      <c r="H60">
         <f t="shared" si="0"/>
-        <v>36348</v>
-      </c>
-    </row>
-    <row r="61" spans="3:5" x14ac:dyDescent="0.2">
+        <v>42796</v>
+      </c>
+    </row>
+    <row r="61" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C61" s="4">
         <v>53</v>
       </c>
       <c r="D61" s="4">
         <v>785</v>
       </c>
-      <c r="E61" s="4">
+      <c r="F61">
+        <v>53</v>
+      </c>
+      <c r="G61">
+        <v>785</v>
+      </c>
+      <c r="H61">
         <f t="shared" si="0"/>
-        <v>37047</v>
-      </c>
-    </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.2">
+        <v>41605</v>
+      </c>
+    </row>
+    <row r="62" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C62" s="4">
         <v>54</v>
       </c>
       <c r="D62" s="4">
         <v>805</v>
       </c>
-      <c r="E62" s="4">
+      <c r="F62">
+        <v>54</v>
+      </c>
+      <c r="G62">
+        <v>805</v>
+      </c>
+      <c r="H62">
         <f t="shared" si="0"/>
-        <v>37746</v>
-      </c>
-    </row>
-    <row r="63" spans="3:5" x14ac:dyDescent="0.2">
+        <v>43470</v>
+      </c>
+    </row>
+    <row r="63" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C63" s="4">
         <v>55</v>
       </c>
       <c r="D63" s="4">
         <v>804</v>
       </c>
-      <c r="E63" s="4">
+      <c r="F63">
+        <v>55</v>
+      </c>
+      <c r="G63">
+        <v>804</v>
+      </c>
+      <c r="H63">
         <f t="shared" si="0"/>
-        <v>38445</v>
-      </c>
-    </row>
-    <row r="64" spans="3:5" x14ac:dyDescent="0.2">
+        <v>44220</v>
+      </c>
+    </row>
+    <row r="64" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C64" s="4">
         <v>56</v>
       </c>
       <c r="D64" s="4">
         <v>795</v>
       </c>
-      <c r="E64" s="4">
+      <c r="F64">
+        <v>56</v>
+      </c>
+      <c r="G64">
+        <v>795</v>
+      </c>
+      <c r="H64">
         <f t="shared" si="0"/>
-        <v>39144</v>
-      </c>
-    </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.2">
+        <v>44520</v>
+      </c>
+    </row>
+    <row r="65" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C65" s="4">
         <v>57</v>
       </c>
       <c r="D65" s="4">
         <v>740</v>
       </c>
-      <c r="E65" s="4">
+      <c r="F65">
+        <v>57</v>
+      </c>
+      <c r="G65">
+        <v>740</v>
+      </c>
+      <c r="H65">
         <f t="shared" si="0"/>
-        <v>39843</v>
-      </c>
-    </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.2">
+        <v>42180</v>
+      </c>
+    </row>
+    <row r="66" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C66" s="4">
         <v>58</v>
       </c>
       <c r="D66" s="4">
         <v>724</v>
       </c>
-      <c r="E66" s="4">
+      <c r="F66">
+        <v>58</v>
+      </c>
+      <c r="G66">
+        <v>724</v>
+      </c>
+      <c r="H66">
         <f t="shared" si="0"/>
-        <v>40542</v>
-      </c>
-    </row>
-    <row r="67" spans="3:5" x14ac:dyDescent="0.2">
+        <v>41992</v>
+      </c>
+    </row>
+    <row r="67" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C67" s="4">
         <v>59</v>
       </c>
       <c r="D67" s="4">
         <v>743</v>
       </c>
-      <c r="E67" s="4">
+      <c r="F67">
+        <v>59</v>
+      </c>
+      <c r="G67">
+        <v>743</v>
+      </c>
+      <c r="H67">
         <f t="shared" si="0"/>
-        <v>41241</v>
-      </c>
-    </row>
-    <row r="68" spans="3:5" x14ac:dyDescent="0.2">
+        <v>43837</v>
+      </c>
+    </row>
+    <row r="68" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C68" s="4">
         <v>60</v>
       </c>
       <c r="D68" s="4">
         <v>673</v>
       </c>
-      <c r="E68" s="4">
+      <c r="F68">
+        <v>60</v>
+      </c>
+      <c r="G68">
+        <v>673</v>
+      </c>
+      <c r="H68">
         <f t="shared" si="0"/>
-        <v>41940</v>
-      </c>
-    </row>
-    <row r="69" spans="3:5" x14ac:dyDescent="0.2">
+        <v>40380</v>
+      </c>
+    </row>
+    <row r="69" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C69" s="4">
         <v>61</v>
       </c>
       <c r="D69" s="4">
         <v>684</v>
       </c>
-      <c r="E69" s="4">
+      <c r="F69">
+        <v>61</v>
+      </c>
+      <c r="G69">
+        <v>684</v>
+      </c>
+      <c r="H69">
         <f t="shared" si="0"/>
-        <v>42639</v>
-      </c>
-    </row>
-    <row r="70" spans="3:5" x14ac:dyDescent="0.2">
+        <v>41724</v>
+      </c>
+    </row>
+    <row r="70" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C70" s="4">
         <v>62</v>
       </c>
       <c r="D70" s="4">
         <v>713</v>
       </c>
-      <c r="E70" s="4">
+      <c r="F70">
+        <v>62</v>
+      </c>
+      <c r="G70">
+        <v>713</v>
+      </c>
+      <c r="H70">
         <f t="shared" si="0"/>
-        <v>43338</v>
-      </c>
-    </row>
-    <row r="71" spans="3:5" x14ac:dyDescent="0.2">
+        <v>44206</v>
+      </c>
+    </row>
+    <row r="71" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C71" s="4">
         <v>63</v>
       </c>
       <c r="D71" s="4">
         <v>642</v>
       </c>
-      <c r="E71" s="4">
+      <c r="F71">
+        <v>63</v>
+      </c>
+      <c r="G71">
+        <v>642</v>
+      </c>
+      <c r="H71">
         <f t="shared" si="0"/>
-        <v>44037</v>
-      </c>
-    </row>
-    <row r="72" spans="3:5" x14ac:dyDescent="0.2">
+        <v>40446</v>
+      </c>
+    </row>
+    <row r="72" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C72" s="4">
         <v>64</v>
       </c>
       <c r="D72" s="4">
         <v>610</v>
       </c>
-      <c r="E72" s="4">
+      <c r="F72">
+        <v>64</v>
+      </c>
+      <c r="G72">
+        <v>610</v>
+      </c>
+      <c r="H72">
         <f t="shared" si="0"/>
-        <v>44736</v>
-      </c>
-    </row>
-    <row r="73" spans="3:5" x14ac:dyDescent="0.2">
+        <v>39040</v>
+      </c>
+    </row>
+    <row r="73" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C73" s="4">
         <v>65</v>
       </c>
       <c r="D73" s="4">
         <v>628</v>
       </c>
-      <c r="E73" s="4">
-        <f t="shared" ref="E73:E108" si="1">C73*GETPIVOTDATA("Carlow County Council",$C$6,"Single Year of Age",0)</f>
-        <v>45435</v>
-      </c>
-    </row>
-    <row r="74" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F73">
+        <v>65</v>
+      </c>
+      <c r="G73">
+        <v>628</v>
+      </c>
+      <c r="H73">
+        <f t="shared" ref="H73:H108" si="1">F73*G73</f>
+        <v>40820</v>
+      </c>
+    </row>
+    <row r="74" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C74" s="4">
         <v>66</v>
       </c>
       <c r="D74" s="4">
         <v>569</v>
       </c>
-      <c r="E74" s="4">
+      <c r="F74">
+        <v>66</v>
+      </c>
+      <c r="G74">
+        <v>569</v>
+      </c>
+      <c r="H74">
         <f t="shared" si="1"/>
-        <v>46134</v>
-      </c>
-    </row>
-    <row r="75" spans="3:5" x14ac:dyDescent="0.2">
+        <v>37554</v>
+      </c>
+    </row>
+    <row r="75" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C75" s="4">
         <v>67</v>
       </c>
       <c r="D75" s="4">
         <v>562</v>
       </c>
-      <c r="E75" s="4">
+      <c r="F75">
+        <v>67</v>
+      </c>
+      <c r="G75">
+        <v>562</v>
+      </c>
+      <c r="H75">
         <f t="shared" si="1"/>
-        <v>46833</v>
-      </c>
-    </row>
-    <row r="76" spans="3:5" x14ac:dyDescent="0.2">
+        <v>37654</v>
+      </c>
+    </row>
+    <row r="76" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C76" s="4">
         <v>68</v>
       </c>
       <c r="D76" s="4">
         <v>565</v>
       </c>
-      <c r="E76" s="4">
+      <c r="F76">
+        <v>68</v>
+      </c>
+      <c r="G76">
+        <v>565</v>
+      </c>
+      <c r="H76">
         <f t="shared" si="1"/>
-        <v>47532</v>
-      </c>
-    </row>
-    <row r="77" spans="3:5" x14ac:dyDescent="0.2">
+        <v>38420</v>
+      </c>
+    </row>
+    <row r="77" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C77" s="4">
         <v>69</v>
       </c>
       <c r="D77" s="4">
         <v>587</v>
       </c>
-      <c r="E77" s="4">
+      <c r="F77">
+        <v>69</v>
+      </c>
+      <c r="G77">
+        <v>587</v>
+      </c>
+      <c r="H77">
         <f t="shared" si="1"/>
-        <v>48231</v>
-      </c>
-    </row>
-    <row r="78" spans="3:5" x14ac:dyDescent="0.2">
+        <v>40503</v>
+      </c>
+    </row>
+    <row r="78" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C78" s="4">
         <v>70</v>
       </c>
       <c r="D78" s="4">
         <v>522</v>
       </c>
-      <c r="E78" s="4">
+      <c r="F78">
+        <v>70</v>
+      </c>
+      <c r="G78">
+        <v>522</v>
+      </c>
+      <c r="H78">
         <f t="shared" si="1"/>
-        <v>48930</v>
-      </c>
-    </row>
-    <row r="79" spans="3:5" x14ac:dyDescent="0.2">
+        <v>36540</v>
+      </c>
+    </row>
+    <row r="79" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C79" s="4">
         <v>71</v>
       </c>
       <c r="D79" s="4">
         <v>497</v>
       </c>
-      <c r="E79" s="4">
+      <c r="F79">
+        <v>71</v>
+      </c>
+      <c r="G79">
+        <v>497</v>
+      </c>
+      <c r="H79">
         <f t="shared" si="1"/>
-        <v>49629</v>
-      </c>
-    </row>
-    <row r="80" spans="3:5" x14ac:dyDescent="0.2">
+        <v>35287</v>
+      </c>
+    </row>
+    <row r="80" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C80" s="4">
         <v>72</v>
       </c>
       <c r="D80" s="4">
         <v>526</v>
       </c>
-      <c r="E80" s="4">
+      <c r="F80">
+        <v>72</v>
+      </c>
+      <c r="G80">
+        <v>526</v>
+      </c>
+      <c r="H80">
         <f t="shared" si="1"/>
-        <v>50328</v>
-      </c>
-    </row>
-    <row r="81" spans="3:5" x14ac:dyDescent="0.2">
+        <v>37872</v>
+      </c>
+    </row>
+    <row r="81" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C81" s="4">
         <v>73</v>
       </c>
       <c r="D81" s="4">
         <v>461</v>
       </c>
-      <c r="E81" s="4">
+      <c r="F81">
+        <v>73</v>
+      </c>
+      <c r="G81">
+        <v>461</v>
+      </c>
+      <c r="H81">
         <f t="shared" si="1"/>
-        <v>51027</v>
-      </c>
-    </row>
-    <row r="82" spans="3:5" x14ac:dyDescent="0.2">
+        <v>33653</v>
+      </c>
+    </row>
+    <row r="82" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C82" s="4">
         <v>74</v>
       </c>
       <c r="D82" s="4">
         <v>475</v>
       </c>
-      <c r="E82" s="4">
+      <c r="F82">
+        <v>74</v>
+      </c>
+      <c r="G82">
+        <v>475</v>
+      </c>
+      <c r="H82">
         <f t="shared" si="1"/>
-        <v>51726</v>
-      </c>
-    </row>
-    <row r="83" spans="3:5" x14ac:dyDescent="0.2">
+        <v>35150</v>
+      </c>
+    </row>
+    <row r="83" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C83" s="4">
         <v>75</v>
       </c>
       <c r="D83" s="4">
         <v>404</v>
       </c>
-      <c r="E83" s="4">
+      <c r="F83">
+        <v>75</v>
+      </c>
+      <c r="G83">
+        <v>404</v>
+      </c>
+      <c r="H83">
         <f t="shared" si="1"/>
-        <v>52425</v>
-      </c>
-    </row>
-    <row r="84" spans="3:5" x14ac:dyDescent="0.2">
+        <v>30300</v>
+      </c>
+    </row>
+    <row r="84" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C84" s="4">
         <v>76</v>
       </c>
       <c r="D84" s="4">
         <v>412</v>
       </c>
-      <c r="E84" s="4">
+      <c r="F84">
+        <v>76</v>
+      </c>
+      <c r="G84">
+        <v>412</v>
+      </c>
+      <c r="H84">
         <f t="shared" si="1"/>
-        <v>53124</v>
-      </c>
-    </row>
-    <row r="85" spans="3:5" x14ac:dyDescent="0.2">
+        <v>31312</v>
+      </c>
+    </row>
+    <row r="85" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C85" s="4">
         <v>77</v>
       </c>
       <c r="D85" s="4">
         <v>372</v>
       </c>
-      <c r="E85" s="4">
+      <c r="F85">
+        <v>77</v>
+      </c>
+      <c r="G85">
+        <v>372</v>
+      </c>
+      <c r="H85">
         <f t="shared" si="1"/>
-        <v>53823</v>
-      </c>
-    </row>
-    <row r="86" spans="3:5" x14ac:dyDescent="0.2">
+        <v>28644</v>
+      </c>
+    </row>
+    <row r="86" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C86" s="4">
         <v>78</v>
       </c>
       <c r="D86" s="4">
         <v>312</v>
       </c>
-      <c r="E86" s="4">
+      <c r="F86">
+        <v>78</v>
+      </c>
+      <c r="G86">
+        <v>312</v>
+      </c>
+      <c r="H86">
         <f t="shared" si="1"/>
-        <v>54522</v>
-      </c>
-    </row>
-    <row r="87" spans="3:5" x14ac:dyDescent="0.2">
+        <v>24336</v>
+      </c>
+    </row>
+    <row r="87" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C87" s="4">
         <v>79</v>
       </c>
       <c r="D87" s="4">
         <v>339</v>
       </c>
-      <c r="E87" s="4">
+      <c r="F87">
+        <v>79</v>
+      </c>
+      <c r="G87">
+        <v>339</v>
+      </c>
+      <c r="H87">
         <f t="shared" si="1"/>
-        <v>55221</v>
-      </c>
-    </row>
-    <row r="88" spans="3:5" x14ac:dyDescent="0.2">
+        <v>26781</v>
+      </c>
+    </row>
+    <row r="88" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C88" s="4">
         <v>80</v>
       </c>
       <c r="D88" s="4">
         <v>279</v>
       </c>
-      <c r="E88" s="4">
+      <c r="F88">
+        <v>80</v>
+      </c>
+      <c r="G88">
+        <v>279</v>
+      </c>
+      <c r="H88">
         <f t="shared" si="1"/>
-        <v>55920</v>
-      </c>
-    </row>
-    <row r="89" spans="3:5" x14ac:dyDescent="0.2">
+        <v>22320</v>
+      </c>
+    </row>
+    <row r="89" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C89" s="4">
         <v>81</v>
       </c>
       <c r="D89" s="4">
         <v>265</v>
       </c>
-      <c r="E89" s="4">
+      <c r="F89">
+        <v>81</v>
+      </c>
+      <c r="G89">
+        <v>265</v>
+      </c>
+      <c r="H89">
         <f t="shared" si="1"/>
-        <v>56619</v>
-      </c>
-    </row>
-    <row r="90" spans="3:5" x14ac:dyDescent="0.2">
+        <v>21465</v>
+      </c>
+    </row>
+    <row r="90" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C90" s="4">
         <v>82</v>
       </c>
       <c r="D90" s="4">
         <v>240</v>
       </c>
-      <c r="E90" s="4">
+      <c r="F90">
+        <v>82</v>
+      </c>
+      <c r="G90">
+        <v>240</v>
+      </c>
+      <c r="H90">
         <f t="shared" si="1"/>
-        <v>57318</v>
-      </c>
-    </row>
-    <row r="91" spans="3:5" x14ac:dyDescent="0.2">
+        <v>19680</v>
+      </c>
+    </row>
+    <row r="91" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C91" s="4">
         <v>83</v>
       </c>
       <c r="D91" s="4">
         <v>203</v>
       </c>
-      <c r="E91" s="4">
+      <c r="F91">
+        <v>83</v>
+      </c>
+      <c r="G91">
+        <v>203</v>
+      </c>
+      <c r="H91">
         <f t="shared" si="1"/>
-        <v>58017</v>
-      </c>
-    </row>
-    <row r="92" spans="3:5" x14ac:dyDescent="0.2">
+        <v>16849</v>
+      </c>
+    </row>
+    <row r="92" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C92" s="4">
         <v>84</v>
       </c>
       <c r="D92" s="4">
         <v>198</v>
       </c>
-      <c r="E92" s="4">
+      <c r="F92">
+        <v>84</v>
+      </c>
+      <c r="G92">
+        <v>198</v>
+      </c>
+      <c r="H92">
         <f t="shared" si="1"/>
-        <v>58716</v>
-      </c>
-    </row>
-    <row r="93" spans="3:5" x14ac:dyDescent="0.2">
+        <v>16632</v>
+      </c>
+    </row>
+    <row r="93" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C93" s="4">
         <v>85</v>
       </c>
       <c r="D93" s="4">
         <v>141</v>
       </c>
-      <c r="E93" s="4">
+      <c r="F93">
+        <v>85</v>
+      </c>
+      <c r="G93">
+        <v>141</v>
+      </c>
+      <c r="H93">
         <f t="shared" si="1"/>
-        <v>59415</v>
-      </c>
-    </row>
-    <row r="94" spans="3:5" x14ac:dyDescent="0.2">
+        <v>11985</v>
+      </c>
+    </row>
+    <row r="94" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C94" s="4">
         <v>86</v>
       </c>
       <c r="D94" s="4">
         <v>159</v>
       </c>
-      <c r="E94" s="4">
+      <c r="F94">
+        <v>86</v>
+      </c>
+      <c r="G94">
+        <v>159</v>
+      </c>
+      <c r="H94">
         <f t="shared" si="1"/>
-        <v>60114</v>
-      </c>
-    </row>
-    <row r="95" spans="3:5" x14ac:dyDescent="0.2">
+        <v>13674</v>
+      </c>
+    </row>
+    <row r="95" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C95" s="4">
         <v>87</v>
       </c>
       <c r="D95" s="4">
         <v>119</v>
       </c>
-      <c r="E95" s="4">
+      <c r="F95">
+        <v>87</v>
+      </c>
+      <c r="G95">
+        <v>119</v>
+      </c>
+      <c r="H95">
         <f t="shared" si="1"/>
-        <v>60813</v>
-      </c>
-    </row>
-    <row r="96" spans="3:5" x14ac:dyDescent="0.2">
+        <v>10353</v>
+      </c>
+    </row>
+    <row r="96" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C96" s="4">
         <v>88</v>
       </c>
       <c r="D96" s="4">
         <v>105</v>
       </c>
-      <c r="E96" s="4">
+      <c r="F96">
+        <v>88</v>
+      </c>
+      <c r="G96">
+        <v>105</v>
+      </c>
+      <c r="H96">
         <f t="shared" si="1"/>
-        <v>61512</v>
-      </c>
-    </row>
-    <row r="97" spans="3:8" x14ac:dyDescent="0.2">
+        <v>9240</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="4">
         <v>89</v>
       </c>
       <c r="D97" s="4">
         <v>86</v>
       </c>
-      <c r="E97" s="4">
+      <c r="F97">
+        <v>89</v>
+      </c>
+      <c r="G97">
+        <v>86</v>
+      </c>
+      <c r="H97">
         <f t="shared" si="1"/>
-        <v>62211</v>
-      </c>
-    </row>
-    <row r="98" spans="3:8" x14ac:dyDescent="0.2">
+        <v>7654</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="4">
         <v>90</v>
       </c>
       <c r="D98" s="4">
         <v>65</v>
       </c>
-      <c r="E98" s="4">
+      <c r="F98">
+        <v>90</v>
+      </c>
+      <c r="G98">
+        <v>65</v>
+      </c>
+      <c r="H98">
         <f t="shared" si="1"/>
-        <v>62910</v>
-      </c>
-    </row>
-    <row r="99" spans="3:8" x14ac:dyDescent="0.2">
+        <v>5850</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="4">
         <v>91</v>
       </c>
       <c r="D99" s="4">
         <v>72</v>
       </c>
-      <c r="E99" s="4">
+      <c r="F99">
+        <v>91</v>
+      </c>
+      <c r="G99">
+        <v>72</v>
+      </c>
+      <c r="H99">
         <f t="shared" si="1"/>
-        <v>63609</v>
-      </c>
-    </row>
-    <row r="100" spans="3:8" x14ac:dyDescent="0.2">
+        <v>6552</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="4">
         <v>92</v>
       </c>
       <c r="D100" s="4">
         <v>38</v>
       </c>
-      <c r="E100" s="4">
+      <c r="F100">
+        <v>92</v>
+      </c>
+      <c r="G100">
+        <v>38</v>
+      </c>
+      <c r="H100">
         <f t="shared" si="1"/>
-        <v>64308</v>
-      </c>
-    </row>
-    <row r="101" spans="3:8" x14ac:dyDescent="0.2">
+        <v>3496</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="4">
         <v>93</v>
       </c>
       <c r="D101" s="4">
         <v>26</v>
       </c>
-      <c r="E101" s="4">
+      <c r="F101">
+        <v>93</v>
+      </c>
+      <c r="G101">
+        <v>26</v>
+      </c>
+      <c r="H101">
         <f t="shared" si="1"/>
-        <v>65007</v>
-      </c>
-    </row>
-    <row r="102" spans="3:8" x14ac:dyDescent="0.2">
+        <v>2418</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="4">
         <v>94</v>
       </c>
       <c r="D102" s="4">
         <v>24</v>
       </c>
-      <c r="E102" s="4">
+      <c r="F102">
+        <v>94</v>
+      </c>
+      <c r="G102">
+        <v>24</v>
+      </c>
+      <c r="H102">
         <f t="shared" si="1"/>
-        <v>65706</v>
-      </c>
-    </row>
-    <row r="103" spans="3:8" x14ac:dyDescent="0.2">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="103" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C103" s="4">
         <v>95</v>
       </c>
       <c r="D103" s="4">
         <v>14</v>
       </c>
-      <c r="E103" s="4">
+      <c r="F103">
+        <v>95</v>
+      </c>
+      <c r="G103">
+        <v>14</v>
+      </c>
+      <c r="H103">
         <f t="shared" si="1"/>
-        <v>66405</v>
-      </c>
-    </row>
-    <row r="104" spans="3:8" x14ac:dyDescent="0.2">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="104" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C104" s="4">
         <v>96</v>
       </c>
       <c r="D104" s="4">
         <v>11</v>
       </c>
-      <c r="E104" s="4">
+      <c r="F104">
+        <v>96</v>
+      </c>
+      <c r="G104">
+        <v>11</v>
+      </c>
+      <c r="H104">
         <f t="shared" si="1"/>
-        <v>67104</v>
-      </c>
-    </row>
-    <row r="105" spans="3:8" x14ac:dyDescent="0.2">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="105" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C105" s="4">
         <v>97</v>
       </c>
       <c r="D105" s="4">
         <v>11</v>
       </c>
-      <c r="E105" s="4">
+      <c r="F105">
+        <v>97</v>
+      </c>
+      <c r="G105">
+        <v>11</v>
+      </c>
+      <c r="H105">
         <f t="shared" si="1"/>
-        <v>67803</v>
-      </c>
-    </row>
-    <row r="106" spans="3:8" x14ac:dyDescent="0.2">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="106" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C106" s="4">
         <v>98</v>
       </c>
       <c r="D106" s="4">
         <v>7</v>
       </c>
-      <c r="E106" s="4">
+      <c r="F106">
+        <v>98</v>
+      </c>
+      <c r="G106">
+        <v>7</v>
+      </c>
+      <c r="H106">
         <f t="shared" si="1"/>
-        <v>68502</v>
-      </c>
-    </row>
-    <row r="107" spans="3:8" x14ac:dyDescent="0.2">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="107" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C107" s="4">
         <v>99</v>
       </c>
       <c r="D107" s="4">
         <v>7</v>
       </c>
-      <c r="E107" s="4">
+      <c r="F107">
+        <v>99</v>
+      </c>
+      <c r="G107">
+        <v>7</v>
+      </c>
+      <c r="H107">
         <f t="shared" si="1"/>
-        <v>69201</v>
-      </c>
-    </row>
-    <row r="108" spans="3:8" x14ac:dyDescent="0.2">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="108" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C108" s="4">
         <v>100</v>
       </c>
       <c r="D108" s="4">
         <v>3</v>
       </c>
-      <c r="E108" s="4">
+      <c r="F108">
+        <v>100</v>
+      </c>
+      <c r="G108">
+        <v>3</v>
+      </c>
+      <c r="H108">
         <f t="shared" si="1"/>
-        <v>69900</v>
-      </c>
-    </row>
-    <row r="109" spans="3:8" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="109" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C109" t="s">
         <v>35</v>
       </c>
       <c r="D109">
         <v>61968</v>
       </c>
-      <c r="E109">
-        <f>SUM(E8:E108)</f>
-        <v>3529950</v>
-      </c>
-      <c r="G109" s="2" t="s">
+      <c r="H109" s="14">
+        <f>SUM(H8:H108)</f>
+        <v>2371825</v>
+      </c>
+      <c r="K109" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H109" s="3">
-        <f>E109/GETPIVOTDATA("Carlow County Council",$C$6)</f>
-        <v>56.964078233927189</v>
+      <c r="L109" s="14">
+        <f>H109/GETPIVOTDATA("Carlow County Council",$C$6)</f>
+        <v>38.274996772527757</v>
+      </c>
+      <c r="M109" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCE4B699-7CFA-6A4C-99B6-F0D8BAC7974F}">
+  <dimension ref="A1:G103"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="10">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11">
+        <v>699</v>
+      </c>
+      <c r="C2">
+        <f>SUM($B$2:B2)</f>
+        <v>699</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="3">
+        <f>MAX(B2:B102)</f>
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11">
+        <v>649</v>
+      </c>
+      <c r="C3">
+        <f>SUM($B$2:B3)</f>
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="10">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11">
+        <v>689</v>
+      </c>
+      <c r="C4">
+        <f>SUM($B$2:B4)</f>
+        <v>2037</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="14">
+        <v>42</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="10">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11">
+        <v>754</v>
+      </c>
+      <c r="C5">
+        <f>SUM($B$2:B5)</f>
+        <v>2791</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="10">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11">
+        <v>745</v>
+      </c>
+      <c r="C6">
+        <f>SUM($B$2:B6)</f>
+        <v>3536</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="10">
+        <v>5</v>
+      </c>
+      <c r="B7" s="11">
+        <v>749</v>
+      </c>
+      <c r="C7">
+        <f>SUM($B$2:B7)</f>
+        <v>4285</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="10">
+        <v>6</v>
+      </c>
+      <c r="B8" s="11">
+        <v>750</v>
+      </c>
+      <c r="C8">
+        <f>SUM($B$2:B8)</f>
+        <v>5035</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="10">
+        <v>7</v>
+      </c>
+      <c r="B9" s="11">
+        <v>889</v>
+      </c>
+      <c r="C9">
+        <f>SUM($B$2:B9)</f>
+        <v>5924</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="11">
+        <v>819</v>
+      </c>
+      <c r="C10">
+        <f>SUM($B$2:B10)</f>
+        <v>6743</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="10">
+        <v>9</v>
+      </c>
+      <c r="B11" s="11">
+        <v>882</v>
+      </c>
+      <c r="C11">
+        <f>SUM($B$2:B11)</f>
+        <v>7625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="10">
+        <v>10</v>
+      </c>
+      <c r="B12" s="11">
+        <v>921</v>
+      </c>
+      <c r="C12">
+        <f>SUM($B$2:B12)</f>
+        <v>8546</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="10">
+        <v>11</v>
+      </c>
+      <c r="B13" s="11">
+        <v>964</v>
+      </c>
+      <c r="C13">
+        <f>SUM($B$2:B13)</f>
+        <v>9510</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="10">
+        <v>12</v>
+      </c>
+      <c r="B14" s="11">
+        <v>908</v>
+      </c>
+      <c r="C14">
+        <f>SUM($B$2:B14)</f>
+        <v>10418</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="10">
+        <v>13</v>
+      </c>
+      <c r="B15" s="11">
+        <v>943</v>
+      </c>
+      <c r="C15">
+        <f>SUM($B$2:B15)</f>
+        <v>11361</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="10">
+        <v>14</v>
+      </c>
+      <c r="B16" s="11">
+        <v>951</v>
+      </c>
+      <c r="C16">
+        <f>SUM($B$2:B16)</f>
+        <v>12312</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="10">
+        <v>15</v>
+      </c>
+      <c r="B17" s="11">
+        <v>843</v>
+      </c>
+      <c r="C17">
+        <f>SUM($B$2:B17)</f>
+        <v>13155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="10">
+        <v>16</v>
+      </c>
+      <c r="B18" s="11">
+        <v>873</v>
+      </c>
+      <c r="C18">
+        <f>SUM($B$2:B18)</f>
+        <v>14028</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="10">
+        <v>17</v>
+      </c>
+      <c r="B19" s="11">
+        <v>877</v>
+      </c>
+      <c r="C19">
+        <f>SUM($B$2:B19)</f>
+        <v>14905</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="10">
+        <v>18</v>
+      </c>
+      <c r="B20" s="11">
+        <v>903</v>
+      </c>
+      <c r="C20">
+        <f>SUM($B$2:B20)</f>
+        <v>15808</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="10">
+        <v>19</v>
+      </c>
+      <c r="B21" s="11">
+        <v>827</v>
+      </c>
+      <c r="C21">
+        <f>SUM($B$2:B21)</f>
+        <v>16635</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="10">
+        <v>20</v>
+      </c>
+      <c r="B22" s="11">
+        <v>810</v>
+      </c>
+      <c r="C22">
+        <f>SUM($B$2:B22)</f>
+        <v>17445</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="10">
+        <v>21</v>
+      </c>
+      <c r="B23" s="11">
+        <v>813</v>
+      </c>
+      <c r="C23">
+        <f>SUM($B$2:B23)</f>
+        <v>18258</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="10">
+        <v>22</v>
+      </c>
+      <c r="B24" s="11">
+        <v>769</v>
+      </c>
+      <c r="C24">
+        <f>SUM($B$2:B24)</f>
+        <v>19027</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="10">
+        <v>23</v>
+      </c>
+      <c r="B25" s="11">
+        <v>720</v>
+      </c>
+      <c r="C25">
+        <f>SUM($B$2:B25)</f>
+        <v>19747</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="10">
+        <v>24</v>
+      </c>
+      <c r="B26" s="11">
+        <v>669</v>
+      </c>
+      <c r="C26">
+        <f>SUM($B$2:B26)</f>
+        <v>20416</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="10">
+        <v>25</v>
+      </c>
+      <c r="B27" s="11">
+        <v>625</v>
+      </c>
+      <c r="C27">
+        <f>SUM($B$2:B27)</f>
+        <v>21041</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="10">
+        <v>26</v>
+      </c>
+      <c r="B28" s="11">
+        <v>663</v>
+      </c>
+      <c r="C28">
+        <f>SUM($B$2:B28)</f>
+        <v>21704</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="10">
+        <v>27</v>
+      </c>
+      <c r="B29" s="11">
+        <v>658</v>
+      </c>
+      <c r="C29">
+        <f>SUM($B$2:B29)</f>
+        <v>22362</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="10">
+        <v>28</v>
+      </c>
+      <c r="B30" s="11">
+        <v>633</v>
+      </c>
+      <c r="C30">
+        <f>SUM($B$2:B30)</f>
+        <v>22995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="10">
+        <v>29</v>
+      </c>
+      <c r="B31" s="11">
+        <v>713</v>
+      </c>
+      <c r="C31">
+        <f>SUM($B$2:B31)</f>
+        <v>23708</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="10">
+        <v>30</v>
+      </c>
+      <c r="B32" s="11">
+        <v>705</v>
+      </c>
+      <c r="C32">
+        <f>SUM($B$2:B32)</f>
+        <v>24413</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="10">
+        <v>31</v>
+      </c>
+      <c r="B33" s="11">
+        <v>739</v>
+      </c>
+      <c r="C33">
+        <f>SUM($B$2:B33)</f>
+        <v>25152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="10">
+        <v>32</v>
+      </c>
+      <c r="B34" s="11">
+        <v>746</v>
+      </c>
+      <c r="C34">
+        <f>SUM($B$2:B34)</f>
+        <v>25898</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="10">
+        <v>33</v>
+      </c>
+      <c r="B35" s="11">
+        <v>750</v>
+      </c>
+      <c r="C35">
+        <f>SUM($B$2:B35)</f>
+        <v>26648</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="10">
+        <v>34</v>
+      </c>
+      <c r="B36" s="11">
+        <v>774</v>
+      </c>
+      <c r="C36">
+        <f>SUM($B$2:B36)</f>
+        <v>27422</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="10">
+        <v>35</v>
+      </c>
+      <c r="B37" s="11">
+        <v>833</v>
+      </c>
+      <c r="C37">
+        <f>SUM($B$2:B37)</f>
+        <v>28255</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="10">
+        <v>36</v>
+      </c>
+      <c r="B38" s="11">
+        <v>835</v>
+      </c>
+      <c r="C38">
+        <f>SUM($B$2:B38)</f>
+        <v>29090</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="10">
+        <v>37</v>
+      </c>
+      <c r="B39" s="11">
+        <v>908</v>
+      </c>
+      <c r="C39">
+        <f>SUM($B$2:B39)</f>
+        <v>29998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="10">
+        <v>38</v>
+      </c>
+      <c r="B40" s="11">
+        <v>948</v>
+      </c>
+      <c r="C40">
+        <f>SUM($B$2:B40)</f>
+        <v>30946</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="16">
+        <v>39</v>
+      </c>
+      <c r="B41" s="17">
+        <v>1006</v>
+      </c>
+      <c r="C41" s="15">
+        <f>SUM($B$2:B41)</f>
+        <v>31952</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="10">
+        <v>40</v>
+      </c>
+      <c r="B42" s="11">
+        <v>981</v>
+      </c>
+      <c r="C42">
+        <f>SUM($B$2:B42)</f>
+        <v>32933</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="10">
+        <v>41</v>
+      </c>
+      <c r="B43" s="11">
+        <v>1024</v>
+      </c>
+      <c r="C43">
+        <f>SUM($B$2:B43)</f>
+        <v>33957</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="12">
+        <v>42</v>
+      </c>
+      <c r="B44" s="13">
+        <v>1045</v>
+      </c>
+      <c r="C44" s="14">
+        <f>SUM($B$2:B44)</f>
+        <v>35002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="10">
+        <v>43</v>
+      </c>
+      <c r="B45" s="11">
+        <v>950</v>
+      </c>
+      <c r="C45">
+        <f>SUM($B$2:B45)</f>
+        <v>35952</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="10">
+        <v>44</v>
+      </c>
+      <c r="B46" s="11">
+        <v>907</v>
+      </c>
+      <c r="C46">
+        <f>SUM($B$2:B46)</f>
+        <v>36859</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="10">
+        <v>45</v>
+      </c>
+      <c r="B47" s="11">
+        <v>945</v>
+      </c>
+      <c r="C47">
+        <f>SUM($B$2:B47)</f>
+        <v>37804</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="10">
+        <v>46</v>
+      </c>
+      <c r="B48" s="11">
+        <v>949</v>
+      </c>
+      <c r="C48">
+        <f>SUM($B$2:B48)</f>
+        <v>38753</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="10">
+        <v>47</v>
+      </c>
+      <c r="B49" s="11">
+        <v>871</v>
+      </c>
+      <c r="C49">
+        <f>SUM($B$2:B49)</f>
+        <v>39624</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="10">
+        <v>48</v>
+      </c>
+      <c r="B50" s="11">
+        <v>841</v>
+      </c>
+      <c r="C50">
+        <f>SUM($B$2:B50)</f>
+        <v>40465</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="10">
+        <v>49</v>
+      </c>
+      <c r="B51" s="11">
+        <v>946</v>
+      </c>
+      <c r="C51">
+        <f>SUM($B$2:B51)</f>
+        <v>41411</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="12">
+        <v>50</v>
+      </c>
+      <c r="B52" s="13">
+        <v>897</v>
+      </c>
+      <c r="C52" s="14">
+        <f>SUM($B$2:B52)</f>
+        <v>42308</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="12">
+        <v>51</v>
+      </c>
+      <c r="B53" s="13">
+        <v>815</v>
+      </c>
+      <c r="C53" s="14">
+        <f>SUM($B$2:B53)</f>
+        <v>43123</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="10">
+        <v>52</v>
+      </c>
+      <c r="B54" s="11">
+        <v>823</v>
+      </c>
+      <c r="C54">
+        <f>SUM($B$2:B54)</f>
+        <v>43946</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="10">
+        <v>53</v>
+      </c>
+      <c r="B55" s="11">
+        <v>785</v>
+      </c>
+      <c r="C55">
+        <f>SUM($B$2:B55)</f>
+        <v>44731</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="10">
+        <v>54</v>
+      </c>
+      <c r="B56" s="11">
+        <v>805</v>
+      </c>
+      <c r="C56">
+        <f>SUM($B$2:B56)</f>
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="10">
+        <v>55</v>
+      </c>
+      <c r="B57" s="11">
+        <v>804</v>
+      </c>
+      <c r="C57">
+        <f>SUM($B$2:B57)</f>
+        <v>46340</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="10">
+        <v>56</v>
+      </c>
+      <c r="B58" s="11">
+        <v>795</v>
+      </c>
+      <c r="C58">
+        <f>SUM($B$2:B58)</f>
+        <v>47135</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="10">
+        <v>57</v>
+      </c>
+      <c r="B59" s="11">
+        <v>740</v>
+      </c>
+      <c r="C59">
+        <f>SUM($B$2:B59)</f>
+        <v>47875</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="10">
+        <v>58</v>
+      </c>
+      <c r="B60" s="11">
+        <v>724</v>
+      </c>
+      <c r="C60">
+        <f>SUM($B$2:B60)</f>
+        <v>48599</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="10">
+        <v>59</v>
+      </c>
+      <c r="B61" s="11">
+        <v>743</v>
+      </c>
+      <c r="C61">
+        <f>SUM($B$2:B61)</f>
+        <v>49342</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="10">
+        <v>60</v>
+      </c>
+      <c r="B62" s="11">
+        <v>673</v>
+      </c>
+      <c r="C62">
+        <f>SUM($B$2:B62)</f>
+        <v>50015</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="10">
+        <v>61</v>
+      </c>
+      <c r="B63" s="11">
+        <v>684</v>
+      </c>
+      <c r="C63">
+        <f>SUM($B$2:B63)</f>
+        <v>50699</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="10">
+        <v>62</v>
+      </c>
+      <c r="B64" s="11">
+        <v>713</v>
+      </c>
+      <c r="C64">
+        <f>SUM($B$2:B64)</f>
+        <v>51412</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="10">
+        <v>63</v>
+      </c>
+      <c r="B65" s="11">
+        <v>642</v>
+      </c>
+      <c r="C65">
+        <f>SUM($B$2:B65)</f>
+        <v>52054</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="10">
+        <v>64</v>
+      </c>
+      <c r="B66" s="11">
+        <v>610</v>
+      </c>
+      <c r="C66">
+        <f>SUM($B$2:B66)</f>
+        <v>52664</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="10">
+        <v>65</v>
+      </c>
+      <c r="B67" s="11">
+        <v>628</v>
+      </c>
+      <c r="C67">
+        <f>SUM($B$2:B67)</f>
+        <v>53292</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="10">
+        <v>66</v>
+      </c>
+      <c r="B68" s="11">
+        <v>569</v>
+      </c>
+      <c r="C68">
+        <f>SUM($B$2:B68)</f>
+        <v>53861</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="10">
+        <v>67</v>
+      </c>
+      <c r="B69" s="11">
+        <v>562</v>
+      </c>
+      <c r="C69">
+        <f>SUM($B$2:B69)</f>
+        <v>54423</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="10">
+        <v>68</v>
+      </c>
+      <c r="B70" s="11">
+        <v>565</v>
+      </c>
+      <c r="C70">
+        <f>SUM($B$2:B70)</f>
+        <v>54988</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="10">
+        <v>69</v>
+      </c>
+      <c r="B71" s="11">
+        <v>587</v>
+      </c>
+      <c r="C71">
+        <f>SUM($B$2:B71)</f>
+        <v>55575</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="10">
+        <v>70</v>
+      </c>
+      <c r="B72" s="11">
+        <v>522</v>
+      </c>
+      <c r="C72">
+        <f>SUM($B$2:B72)</f>
+        <v>56097</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="10">
+        <v>71</v>
+      </c>
+      <c r="B73" s="11">
+        <v>497</v>
+      </c>
+      <c r="C73">
+        <f>SUM($B$2:B73)</f>
+        <v>56594</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="10">
+        <v>72</v>
+      </c>
+      <c r="B74" s="11">
+        <v>526</v>
+      </c>
+      <c r="C74">
+        <f>SUM($B$2:B74)</f>
+        <v>57120</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="10">
+        <v>73</v>
+      </c>
+      <c r="B75" s="11">
+        <v>461</v>
+      </c>
+      <c r="C75">
+        <f>SUM($B$2:B75)</f>
+        <v>57581</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="10">
+        <v>74</v>
+      </c>
+      <c r="B76" s="11">
+        <v>475</v>
+      </c>
+      <c r="C76">
+        <f>SUM($B$2:B76)</f>
+        <v>58056</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="10">
+        <v>75</v>
+      </c>
+      <c r="B77" s="11">
+        <v>404</v>
+      </c>
+      <c r="C77">
+        <f>SUM($B$2:B77)</f>
+        <v>58460</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="10">
+        <v>76</v>
+      </c>
+      <c r="B78" s="11">
+        <v>412</v>
+      </c>
+      <c r="C78">
+        <f>SUM($B$2:B78)</f>
+        <v>58872</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="10">
+        <v>77</v>
+      </c>
+      <c r="B79" s="11">
+        <v>372</v>
+      </c>
+      <c r="C79">
+        <f>SUM($B$2:B79)</f>
+        <v>59244</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="10">
+        <v>78</v>
+      </c>
+      <c r="B80" s="11">
+        <v>312</v>
+      </c>
+      <c r="C80">
+        <f>SUM($B$2:B80)</f>
+        <v>59556</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="10">
+        <v>79</v>
+      </c>
+      <c r="B81" s="11">
+        <v>339</v>
+      </c>
+      <c r="C81">
+        <f>SUM($B$2:B81)</f>
+        <v>59895</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="10">
+        <v>80</v>
+      </c>
+      <c r="B82" s="11">
+        <v>279</v>
+      </c>
+      <c r="C82">
+        <f>SUM($B$2:B82)</f>
+        <v>60174</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="10">
+        <v>81</v>
+      </c>
+      <c r="B83" s="11">
+        <v>265</v>
+      </c>
+      <c r="C83">
+        <f>SUM($B$2:B83)</f>
+        <v>60439</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="10">
+        <v>82</v>
+      </c>
+      <c r="B84" s="11">
+        <v>240</v>
+      </c>
+      <c r="C84">
+        <f>SUM($B$2:B84)</f>
+        <v>60679</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="10">
+        <v>83</v>
+      </c>
+      <c r="B85" s="11">
+        <v>203</v>
+      </c>
+      <c r="C85">
+        <f>SUM($B$2:B85)</f>
+        <v>60882</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="10">
+        <v>84</v>
+      </c>
+      <c r="B86" s="11">
+        <v>198</v>
+      </c>
+      <c r="C86">
+        <f>SUM($B$2:B86)</f>
+        <v>61080</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="10">
+        <v>85</v>
+      </c>
+      <c r="B87" s="11">
+        <v>141</v>
+      </c>
+      <c r="C87">
+        <f>SUM($B$2:B87)</f>
+        <v>61221</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="10">
+        <v>86</v>
+      </c>
+      <c r="B88" s="11">
+        <v>159</v>
+      </c>
+      <c r="C88">
+        <f>SUM($B$2:B88)</f>
+        <v>61380</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="10">
+        <v>87</v>
+      </c>
+      <c r="B89" s="11">
+        <v>119</v>
+      </c>
+      <c r="C89">
+        <f>SUM($B$2:B89)</f>
+        <v>61499</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="10">
+        <v>88</v>
+      </c>
+      <c r="B90" s="11">
+        <v>105</v>
+      </c>
+      <c r="C90">
+        <f>SUM($B$2:B90)</f>
+        <v>61604</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="10">
+        <v>89</v>
+      </c>
+      <c r="B91" s="11">
+        <v>86</v>
+      </c>
+      <c r="C91">
+        <f>SUM($B$2:B91)</f>
+        <v>61690</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="10">
+        <v>90</v>
+      </c>
+      <c r="B92" s="11">
+        <v>65</v>
+      </c>
+      <c r="C92">
+        <f>SUM($B$2:B92)</f>
+        <v>61755</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="10">
+        <v>91</v>
+      </c>
+      <c r="B93" s="11">
+        <v>72</v>
+      </c>
+      <c r="C93">
+        <f>SUM($B$2:B93)</f>
+        <v>61827</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="10">
+        <v>92</v>
+      </c>
+      <c r="B94" s="11">
+        <v>38</v>
+      </c>
+      <c r="C94">
+        <f>SUM($B$2:B94)</f>
+        <v>61865</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="10">
+        <v>93</v>
+      </c>
+      <c r="B95" s="11">
+        <v>26</v>
+      </c>
+      <c r="C95">
+        <f>SUM($B$2:B95)</f>
+        <v>61891</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="10">
+        <v>94</v>
+      </c>
+      <c r="B96" s="11">
+        <v>24</v>
+      </c>
+      <c r="C96">
+        <f>SUM($B$2:B96)</f>
+        <v>61915</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="10">
+        <v>95</v>
+      </c>
+      <c r="B97" s="11">
+        <v>14</v>
+      </c>
+      <c r="C97">
+        <f>SUM($B$2:B97)</f>
+        <v>61929</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="10">
+        <v>96</v>
+      </c>
+      <c r="B98" s="11">
+        <v>11</v>
+      </c>
+      <c r="C98">
+        <f>SUM($B$2:B98)</f>
+        <v>61940</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="10">
+        <v>97</v>
+      </c>
+      <c r="B99" s="11">
+        <v>11</v>
+      </c>
+      <c r="C99">
+        <f>SUM($B$2:B99)</f>
+        <v>61951</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="10">
+        <v>98</v>
+      </c>
+      <c r="B100" s="11">
+        <v>7</v>
+      </c>
+      <c r="C100">
+        <f>SUM($B$2:B100)</f>
+        <v>61958</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="10">
+        <v>99</v>
+      </c>
+      <c r="B101" s="11">
+        <v>7</v>
+      </c>
+      <c r="C101">
+        <f>SUM($B$2:B101)</f>
+        <v>61965</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="10">
+        <v>100</v>
+      </c>
+      <c r="B102" s="11">
+        <v>3</v>
+      </c>
+      <c r="C102">
+        <f>SUM($B$2:B102)</f>
+        <v>61968</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B103">
+        <f>SUM(B2:B102)</f>
+        <v>61968</v>
+      </c>
+      <c r="C103" s="14">
+        <f>SUM(C2:C102)</f>
+        <v>3886943</v>
+      </c>
+      <c r="E103" s="15">
+        <f>B103/2</f>
+        <v>30984</v>
       </c>
     </row>
   </sheetData>
